--- a/results/Uncertainty_Analysis.xlsx
+++ b/results/Uncertainty_Analysis.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
-    <t>Feedstock &amp; Reactor Conditions</t>
+    <t>Feedstock &amp; Operating Conditions</t>
   </si>
   <si>
     <t>Mean Impact per gram hydrochar</t>
@@ -61,12 +61,12 @@
     <t>SRU-DCW, 250°C, 1hr</t>
   </si>
   <si>
+    <t>SRU-DCW-BSG, 250°C, 1hr</t>
+  </si>
+  <si>
     <t>BSG, 250°C, 1hr</t>
   </si>
   <si>
-    <t>SRU-DCW-BSG, 250°C, 1hr</t>
-  </si>
-  <si>
     <t>SRU-DCW-BSG, 220°C, 1hr</t>
   </si>
   <si>
@@ -88,10 +88,10 @@
     <t>DCW-BSG, 250°C, 3hr</t>
   </si>
   <si>
+    <t>SRU-BSG, 220°C, 1hr</t>
+  </si>
+  <si>
     <t>SRU-BSG, 190°C, 1hr</t>
-  </si>
-  <si>
-    <t>SRU-BSG, 220°C, 1hr</t>
   </si>
   <si>
     <t>SRU-BSG, 250°C, 1hr</t>
@@ -534,13 +534,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.009100395409808559</v>
+        <v>0.005096526523521016</v>
       </c>
       <c r="C2">
-        <v>0.0001699683074308093</v>
+        <v>9.53426697483441E-05</v>
       </c>
       <c r="D2">
-        <v>1.867702443430256</v>
+        <v>1.870738223539649</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -548,13 +548,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.008707109816480528</v>
+        <v>0.004936975695214136</v>
       </c>
       <c r="C3">
-        <v>0.0001577974076003318</v>
+        <v>8.980447916251954E-05</v>
       </c>
       <c r="D3">
-        <v>1.812282271915971</v>
+        <v>1.819018052885601</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -562,13 +562,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.007558386404654498</v>
+        <v>0.004270416550282341</v>
       </c>
       <c r="C4">
-        <v>0.0001364239463060398</v>
+        <v>7.734084601477531E-05</v>
       </c>
       <c r="D4">
-        <v>1.804934796956519</v>
+        <v>1.811084354514828</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -576,13 +576,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.009409751823003484</v>
+        <v>0.00531261640172687</v>
       </c>
       <c r="C5">
-        <v>0.000146516431201801</v>
+        <v>8.336004097382203E-05</v>
       </c>
       <c r="D5">
-        <v>1.557070090240006</v>
+        <v>1.569095802714568</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -590,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.009912438718554684</v>
+        <v>0.005603024929890132</v>
       </c>
       <c r="C6">
-        <v>0.0001505344332958006</v>
+        <v>8.584972966013805E-05</v>
       </c>
       <c r="D6">
-        <v>1.518641754768394</v>
+        <v>1.532203242612048</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.007469260624638149</v>
+        <v>0.004197613893729362</v>
       </c>
       <c r="C7">
-        <v>0.0001130691277916838</v>
+        <v>6.399399532739826E-05</v>
       </c>
       <c r="D7">
-        <v>1.51379277647259</v>
+        <v>1.524532673741055</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -618,13 +618,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.002625028055307034</v>
+        <v>0.001566309759733813</v>
       </c>
       <c r="C8">
-        <v>3.363856405188455E-05</v>
+        <v>2.099603016950449E-05</v>
       </c>
       <c r="D8">
-        <v>1.281455410881315</v>
+        <v>1.340477516597525</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -632,13 +632,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.002341321178587607</v>
+        <v>0.001385352065613095</v>
       </c>
       <c r="C9">
-        <v>2.992769773187018E-05</v>
+        <v>1.844779331362705E-05</v>
       </c>
       <c r="D9">
-        <v>1.278239739407472</v>
+        <v>1.331632136807251</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -646,13 +646,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.001998032910380418</v>
+        <v>0.001149397800946305</v>
       </c>
       <c r="C10">
-        <v>2.497656103199028E-05</v>
+        <v>1.476354549889915E-05</v>
       </c>
       <c r="D10">
-        <v>1.250057539204139</v>
+        <v>1.284459173903435</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -660,13 +660,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.001627427408213138</v>
+        <v>0.0009384660007817819</v>
       </c>
       <c r="C11">
-        <v>1.535458732432336E-05</v>
+        <v>9.324978256749721E-06</v>
       </c>
       <c r="D11">
-        <v>0.943488308408311</v>
+        <v>0.9936404993874706</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -674,13 +674,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.00180733901926132</v>
+        <v>0.001047840078470718</v>
       </c>
       <c r="C12">
-        <v>1.694607943194584E-05</v>
+        <v>1.041156395046639E-05</v>
       </c>
       <c r="D12">
-        <v>0.937625937986549</v>
+        <v>0.9936214661364799</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -688,13 +688,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.001796026952295984</v>
+        <v>0.001038530027481945</v>
       </c>
       <c r="C13">
-        <v>1.676194351598946E-05</v>
+        <v>1.022930702233199E-05</v>
       </c>
       <c r="D13">
-        <v>0.9332790632435397</v>
+        <v>0.9849794181815152</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -702,13 +702,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.001794983378293363</v>
+        <v>0.001035792639066947</v>
       </c>
       <c r="C14">
-        <v>1.670803297957689E-05</v>
+        <v>1.019136828711756E-05</v>
       </c>
       <c r="D14">
-        <v>0.9308182561257243</v>
+        <v>0.983919744428581</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -716,13 +716,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.001607337019717668</v>
+        <v>0.0009253612996423156</v>
       </c>
       <c r="C15">
-        <v>1.495860665074638E-05</v>
+        <v>9.065239146531024E-06</v>
       </c>
       <c r="D15">
-        <v>0.930645313785773</v>
+        <v>0.9796432107151072</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -730,13 +730,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.001420053828075328</v>
+        <v>0.0008041702477353734</v>
       </c>
       <c r="C16">
-        <v>1.317866472613633E-05</v>
+        <v>7.716474712294885E-06</v>
       </c>
       <c r="D16">
-        <v>0.9280398014206304</v>
+        <v>0.9595573492087373</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -744,13 +744,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.001405269008579332</v>
+        <v>0.0007946913096355002</v>
       </c>
       <c r="C17">
-        <v>1.292361938948859E-05</v>
+        <v>7.54872474955552E-06</v>
       </c>
       <c r="D17">
-        <v>0.9196544797180024</v>
+        <v>0.9498939598342759</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.001394013188767583</v>
+        <v>0.0007886472579763691</v>
       </c>
       <c r="C18">
-        <v>1.266118710327889E-05</v>
+        <v>7.407357063418041E-06</v>
       </c>
       <c r="D18">
-        <v>0.9082544702803257</v>
+        <v>0.9392484394639198</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -772,13 +772,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.001517344710746059</v>
+        <v>0.0008692897494029967</v>
       </c>
       <c r="C19">
-        <v>1.315367418955202E-05</v>
+        <v>7.938281114732091E-06</v>
       </c>
       <c r="D19">
-        <v>0.866887668727861</v>
+        <v>0.913191616510361</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -786,13 +786,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.003793643161275752</v>
+        <v>0.002204643616314547</v>
       </c>
       <c r="C20">
-        <v>3.193206627438987E-05</v>
+        <v>1.994844242080893E-05</v>
       </c>
       <c r="D20">
-        <v>0.8417256161660586</v>
+        <v>0.9048375108425136</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -800,13 +800,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.004133091093019617</v>
+        <v>0.002404739439149371</v>
       </c>
       <c r="C21">
-        <v>3.261692549223968E-05</v>
+        <v>2.059405452534171E-05</v>
       </c>
       <c r="D21">
-        <v>0.7891654153794587</v>
+        <v>0.8563944263594084</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -814,13 +814,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.001216885483648002</v>
+        <v>0.00077441929295573</v>
       </c>
       <c r="C22">
-        <v>9.081911408159114E-06</v>
+        <v>6.003815461459456E-06</v>
       </c>
       <c r="D22">
-        <v>0.7463242458060386</v>
+        <v>0.7752667729318394</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -828,13 +828,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.001367317885495789</v>
+        <v>0.0006823294780733029</v>
       </c>
       <c r="C23">
-        <v>1.009516378135541E-05</v>
+        <v>5.257106300168624E-06</v>
       </c>
       <c r="D23">
-        <v>0.7383187105531719</v>
+        <v>0.7704644851359993</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -842,13 +842,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.001501571745108765</v>
+        <v>0.00085179566144044</v>
       </c>
       <c r="C24">
-        <v>1.075437963955408E-05</v>
+        <v>6.437046502585442E-06</v>
       </c>
       <c r="D24">
-        <v>0.7162081781696751</v>
+        <v>0.7557031332725964</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -856,13 +856,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.002847986459745838</v>
+        <v>0.001624199425002868</v>
       </c>
       <c r="C25">
-        <v>1.879808413722063E-05</v>
+        <v>1.149743325584682E-05</v>
       </c>
       <c r="D25">
-        <v>0.6600482271568883</v>
+        <v>0.7078831009822899</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -870,13 +870,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.001135417798904101</v>
+        <v>0.0006334882725942965</v>
       </c>
       <c r="C26">
-        <v>7.421475013345118E-06</v>
+        <v>4.261499562245992E-06</v>
       </c>
       <c r="D26">
-        <v>0.6536338447845615</v>
+        <v>0.6727037810493416</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -884,13 +884,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.001416985610153961</v>
+        <v>0.0007973742935408388</v>
       </c>
       <c r="C27">
-        <v>9.030268250346767E-06</v>
+        <v>5.327499574244013E-06</v>
       </c>
       <c r="D27">
-        <v>0.6372872233590006</v>
+        <v>0.6681303394653714</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -898,13 +898,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.001247560255890746</v>
+        <v>0.0007002228628661856</v>
       </c>
       <c r="C28">
-        <v>7.652892866363974E-06</v>
+        <v>4.490485599640246E-06</v>
       </c>
       <c r="D28">
-        <v>0.6134287165873108</v>
+        <v>0.6412937705660703</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -912,13 +912,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.003012604422853393</v>
+        <v>0.001710816382477938</v>
       </c>
       <c r="C29">
-        <v>1.599541629658113E-05</v>
+        <v>9.871264714706807E-06</v>
       </c>
       <c r="D29">
-        <v>0.5309497714084561</v>
+        <v>0.5769914770402956</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -926,13 +926,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.002989591352924568</v>
+        <v>0.001695109302250371</v>
       </c>
       <c r="C30">
-        <v>1.556823967700917E-05</v>
+        <v>9.574074342194346E-06</v>
       </c>
       <c r="D30">
-        <v>0.5207480835726775</v>
+        <v>0.5648057225268083</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -940,13 +940,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.003336916653113623</v>
+        <v>0.00189051426708698</v>
       </c>
       <c r="C31">
-        <v>1.637122273437914E-05</v>
+        <v>1.010037550791293E-05</v>
       </c>
       <c r="D31">
-        <v>0.490609279051169</v>
+        <v>0.5342660292892795</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -954,13 +954,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.003327248079818855</v>
+        <v>0.001885146205082942</v>
       </c>
       <c r="C32">
-        <v>1.631433069045231E-05</v>
+        <v>1.006816173497853E-05</v>
       </c>
       <c r="D32">
-        <v>0.4903250463770802</v>
+        <v>0.5340785615371174</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -968,13 +968,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.003325612274844477</v>
+        <v>0.001883732160283686</v>
       </c>
       <c r="C33">
-        <v>1.618312348510156E-05</v>
+        <v>9.98542233475181E-06</v>
       </c>
       <c r="D33">
-        <v>0.486620873019792</v>
+        <v>0.5300871612898526</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -982,13 +982,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.002881492197060185</v>
+        <v>0.001626144348706933</v>
       </c>
       <c r="C34">
-        <v>1.345879125423784E-05</v>
+        <v>8.219759429620549E-06</v>
       </c>
       <c r="D34">
-        <v>0.4670771369073649</v>
+        <v>0.5054753863737055</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -996,13 +996,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.002434897964436946</v>
+        <v>0.001365893343099652</v>
       </c>
       <c r="C35">
-        <v>1.051506317282012E-05</v>
+        <v>6.306709162659315E-06</v>
       </c>
       <c r="D35">
-        <v>0.4318482058138997</v>
+        <v>0.4617277911573506</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.002435251828582147</v>
+        <v>0.001367326769852579</v>
       </c>
       <c r="C36">
-        <v>1.038176008366666E-05</v>
+        <v>6.258582426488509E-06</v>
       </c>
       <c r="D36">
-        <v>0.4263115609571734</v>
+        <v>0.4577239738503248</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.002418398025147263</v>
+        <v>0.001356763477407602</v>
       </c>
       <c r="C37">
-        <v>1.008034826165505E-05</v>
+        <v>6.066422000285779E-06</v>
       </c>
       <c r="D37">
-        <v>0.4168192397130836</v>
+        <v>0.4471245063197771</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.002723261666968579</v>
+        <v>0.001525839116196714</v>
       </c>
       <c r="C38">
-        <v>1.024248413026854E-05</v>
+        <v>6.179671625189902E-06</v>
       </c>
       <c r="D38">
-        <v>0.37611090606912</v>
+        <v>0.4050015207758776</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.003038497133436544</v>
+        <v>0.001699788328446765</v>
       </c>
       <c r="C39">
-        <v>1.043295399237443E-05</v>
+        <v>6.291401458154108E-06</v>
       </c>
       <c r="D39">
-        <v>0.3433590204041018</v>
+        <v>0.3701285244088641</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.002300217901166603</v>
+        <v>0.001281930807638139</v>
       </c>
       <c r="C40">
-        <v>7.779628194103298E-06</v>
+        <v>4.600319532822764E-06</v>
       </c>
       <c r="D40">
-        <v>0.3382126619464051</v>
+        <v>0.3588586455222576</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.00224806563402512</v>
+        <v>0.001248592013351922</v>
       </c>
       <c r="C41">
-        <v>6.723848347017805E-06</v>
+        <v>3.924596956786117E-06</v>
       </c>
       <c r="D41">
-        <v>0.2990948415940543</v>
+        <v>0.3143218052669017</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.002592770138327748</v>
+        <v>0.001444682443749558</v>
       </c>
       <c r="C42">
-        <v>7.587110991849704E-06</v>
+        <v>4.527565615768173E-06</v>
       </c>
       <c r="D42">
-        <v>0.2926256701160228</v>
+        <v>0.3133952125850743</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.002941644442408728</v>
+        <v>0.001635921780826934</v>
       </c>
       <c r="C43">
-        <v>8.464445370470877E-06</v>
+        <v>4.992338956549617E-06</v>
       </c>
       <c r="D43">
-        <v>0.2877453593113338</v>
+        <v>0.3051697834859844</v>
       </c>
     </row>
   </sheetData>

--- a/results/Uncertainty_Analysis.xlsx
+++ b/results/Uncertainty_Analysis.xlsx
@@ -534,13 +534,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.005096526523521016</v>
+        <v>0.00509669603973428</v>
       </c>
       <c r="C2">
-        <v>9.53426697483441E-05</v>
+        <v>9.53395112155996E-05</v>
       </c>
       <c r="D2">
-        <v>1.870738223539649</v>
+        <v>1.87061403058618</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -548,13 +548,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.004936975695214136</v>
+        <v>0.004937089394726806</v>
       </c>
       <c r="C3">
-        <v>8.980447916251954E-05</v>
+        <v>8.980230244877243E-05</v>
       </c>
       <c r="D3">
-        <v>1.819018052885601</v>
+        <v>1.818932072501831</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -562,13 +562,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.004270416550282341</v>
+        <v>0.004270530399434359</v>
       </c>
       <c r="C4">
-        <v>7.734084601477531E-05</v>
+        <v>7.733868988167248E-05</v>
       </c>
       <c r="D4">
-        <v>1.811084354514828</v>
+        <v>1.810985583709138</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -576,13 +576,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.00531261640172687</v>
+        <v>0.005312738099834054</v>
       </c>
       <c r="C5">
-        <v>8.336004097382203E-05</v>
+        <v>8.335773471664571E-05</v>
       </c>
       <c r="D5">
-        <v>1.569095802714568</v>
+        <v>1.569016449714497</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -590,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.005603024929890132</v>
+        <v>0.005603133097304736</v>
       </c>
       <c r="C6">
-        <v>8.584972966013805E-05</v>
+        <v>8.584765819385823E-05</v>
       </c>
       <c r="D6">
-        <v>1.532203242612048</v>
+        <v>1.532136693935637</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.004197613893729362</v>
+        <v>0.004197725370574036</v>
       </c>
       <c r="C7">
-        <v>6.399399532739826E-05</v>
+        <v>6.399191421044411E-05</v>
       </c>
       <c r="D7">
-        <v>1.524532673741055</v>
+        <v>1.524442610253306</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -618,13 +618,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.001566309759733813</v>
+        <v>0.001566309759733815</v>
       </c>
       <c r="C8">
-        <v>2.099603016950449E-05</v>
+        <v>2.09960301695053E-05</v>
       </c>
       <c r="D8">
-        <v>1.340477516597525</v>
+        <v>1.340477516597576</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -635,10 +635,10 @@
         <v>0.001385352065613095</v>
       </c>
       <c r="C9">
-        <v>1.844779331362705E-05</v>
+        <v>1.844779331362654E-05</v>
       </c>
       <c r="D9">
-        <v>1.331632136807251</v>
+        <v>1.331632136807214</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -646,13 +646,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.001149397800946305</v>
+        <v>0.001149397800946306</v>
       </c>
       <c r="C10">
-        <v>1.476354549889915E-05</v>
+        <v>1.4763545498899E-05</v>
       </c>
       <c r="D10">
-        <v>1.284459173903435</v>
+        <v>1.28445917390342</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -660,13 +660,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.0009384660007817819</v>
+        <v>0.0009384660007817823</v>
       </c>
       <c r="C11">
-        <v>9.324978256749721E-06</v>
+        <v>9.324978256750666E-06</v>
       </c>
       <c r="D11">
-        <v>0.9936404993874706</v>
+        <v>0.9936404993875708</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -677,10 +677,10 @@
         <v>0.001047840078470718</v>
       </c>
       <c r="C12">
-        <v>1.041156395046639E-05</v>
+        <v>1.041156395046604E-05</v>
       </c>
       <c r="D12">
-        <v>0.9936214661364799</v>
+        <v>0.9936214661364469</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -688,13 +688,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.001038530027481945</v>
+        <v>0.001038530027481946</v>
       </c>
       <c r="C13">
-        <v>1.022930702233199E-05</v>
+        <v>1.022930702233192E-05</v>
       </c>
       <c r="D13">
-        <v>0.9849794181815152</v>
+        <v>0.9849794181815068</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -702,13 +702,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.001035792639066947</v>
+        <v>0.001035806323174519</v>
       </c>
       <c r="C14">
-        <v>1.019136828711756E-05</v>
+        <v>1.019110736105506E-05</v>
       </c>
       <c r="D14">
-        <v>0.983919744428581</v>
+        <v>0.9838815551754451</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -716,13 +716,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.0009253612996423156</v>
+        <v>0.0009253612996423171</v>
       </c>
       <c r="C15">
-        <v>9.065239146531024E-06</v>
+        <v>9.065239146531124E-06</v>
       </c>
       <c r="D15">
-        <v>0.9796432107151072</v>
+        <v>0.9796432107151163</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -730,13 +730,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.0008041702477353734</v>
+        <v>0.0008041702477353742</v>
       </c>
       <c r="C16">
-        <v>7.716474712294885E-06</v>
+        <v>7.716474712295425E-06</v>
       </c>
       <c r="D16">
-        <v>0.9595573492087373</v>
+        <v>0.9595573492088034</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -744,13 +744,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.0007946913096355002</v>
+        <v>0.0007947066046487192</v>
       </c>
       <c r="C17">
-        <v>7.54872474955552E-06</v>
+        <v>7.548443559008804E-06</v>
       </c>
       <c r="D17">
-        <v>0.9498939598342759</v>
+        <v>0.9498402951294723</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.0007886472579763691</v>
+        <v>0.0007886472579763697</v>
       </c>
       <c r="C18">
-        <v>7.407357063418041E-06</v>
+        <v>7.40735706341801E-06</v>
       </c>
       <c r="D18">
-        <v>0.9392484394639198</v>
+        <v>0.9392484394639151</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -772,13 +772,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.0008692897494029967</v>
+        <v>0.0008693023020880187</v>
       </c>
       <c r="C19">
-        <v>7.938281114732091E-06</v>
+        <v>7.938044756662621E-06</v>
       </c>
       <c r="D19">
-        <v>0.913191616510361</v>
+        <v>0.9131512406668948</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -786,13 +786,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.002204643616314547</v>
+        <v>0.002204643616314548</v>
       </c>
       <c r="C20">
-        <v>1.994844242080893E-05</v>
+        <v>1.994844242080894E-05</v>
       </c>
       <c r="D20">
-        <v>0.9048375108425136</v>
+        <v>0.904837510842514</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -800,13 +800,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.002404739439149371</v>
+        <v>0.002404739439149374</v>
       </c>
       <c r="C21">
-        <v>2.059405452534171E-05</v>
+        <v>2.059405452534032E-05</v>
       </c>
       <c r="D21">
-        <v>0.8563944263594084</v>
+        <v>0.8563944263593495</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -814,13 +814,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.00077441929295573</v>
+        <v>0.000774419292955731</v>
       </c>
       <c r="C22">
-        <v>6.003815461459456E-06</v>
+        <v>6.003815461459071E-06</v>
       </c>
       <c r="D22">
-        <v>0.7752667729318394</v>
+        <v>0.7752667729317888</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -828,13 +828,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.0006823294780733029</v>
+        <v>0.0006823294780733033</v>
       </c>
       <c r="C23">
-        <v>5.257106300168624E-06</v>
+        <v>5.257106300168722E-06</v>
       </c>
       <c r="D23">
-        <v>0.7704644851359993</v>
+        <v>0.7704644851360131</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -842,13 +842,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.00085179566144044</v>
+        <v>0.0008517956614404405</v>
       </c>
       <c r="C24">
-        <v>6.437046502585442E-06</v>
+        <v>6.437046502585716E-06</v>
       </c>
       <c r="D24">
-        <v>0.7557031332725964</v>
+        <v>0.7557031332726279</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -856,13 +856,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.001624199425002868</v>
+        <v>0.00162419942500287</v>
       </c>
       <c r="C25">
-        <v>1.149743325584682E-05</v>
+        <v>1.149743325584668E-05</v>
       </c>
       <c r="D25">
-        <v>0.7078831009822899</v>
+        <v>0.7078831009822801</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -870,13 +870,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.0006334882725942965</v>
+        <v>0.0006334972902030186</v>
       </c>
       <c r="C26">
-        <v>4.261499562245992E-06</v>
+        <v>4.261334588899794E-06</v>
       </c>
       <c r="D26">
-        <v>0.6727037810493416</v>
+        <v>0.6726681636687274</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -884,13 +884,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.0007973742935408388</v>
+        <v>0.0007973820174093737</v>
       </c>
       <c r="C27">
-        <v>5.327499574244013E-06</v>
+        <v>5.327353123996109E-06</v>
       </c>
       <c r="D27">
-        <v>0.6681303394653714</v>
+        <v>0.6681055012131107</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -898,13 +898,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.0007002228628661856</v>
+        <v>0.0007002304911611825</v>
       </c>
       <c r="C28">
-        <v>4.490485599640246E-06</v>
+        <v>4.49034286037553E-06</v>
       </c>
       <c r="D28">
-        <v>0.6412937705660703</v>
+        <v>0.6412663997149363</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -912,13 +912,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.001710816382477938</v>
+        <v>0.001710816382477939</v>
       </c>
       <c r="C29">
-        <v>9.871264714706807E-06</v>
+        <v>9.871264714706399E-06</v>
       </c>
       <c r="D29">
-        <v>0.5769914770402956</v>
+        <v>0.5769914770402714</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -926,13 +926,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.001695109302250371</v>
+        <v>0.001695109302250372</v>
       </c>
       <c r="C30">
-        <v>9.574074342194346E-06</v>
+        <v>9.574074342195503E-06</v>
       </c>
       <c r="D30">
-        <v>0.5648057225268083</v>
+        <v>0.5648057225268762</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -940,13 +940,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.00189051426708698</v>
+        <v>0.001890514267086981</v>
       </c>
       <c r="C31">
-        <v>1.010037550791293E-05</v>
+        <v>1.010037550791127E-05</v>
       </c>
       <c r="D31">
-        <v>0.5342660292892795</v>
+        <v>0.5342660292891913</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -954,13 +954,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.001885146205082942</v>
+        <v>0.001885159213570773</v>
       </c>
       <c r="C32">
-        <v>1.006816173497853E-05</v>
+        <v>1.006791303242924E-05</v>
       </c>
       <c r="D32">
-        <v>0.5340785615371174</v>
+        <v>0.5340616834882135</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -968,13 +968,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.001883732160283686</v>
+        <v>0.001883732160283688</v>
       </c>
       <c r="C33">
-        <v>9.98542233475181E-06</v>
+        <v>9.985422334752291E-06</v>
       </c>
       <c r="D33">
-        <v>0.5300871612898526</v>
+        <v>0.5300871612898778</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -982,13 +982,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.001626144348706933</v>
+        <v>0.001626156958286955</v>
       </c>
       <c r="C34">
-        <v>8.219759429620549E-06</v>
+        <v>8.219521404823164E-06</v>
       </c>
       <c r="D34">
-        <v>0.5054753863737055</v>
+        <v>0.5054568295474913</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -996,13 +996,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.001365893343099652</v>
+        <v>0.00136590531855862</v>
       </c>
       <c r="C35">
-        <v>6.306709162659315E-06</v>
+        <v>6.306487475723467E-06</v>
       </c>
       <c r="D35">
-        <v>0.4617277911573506</v>
+        <v>0.461707512961325</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.001367326769852579</v>
+        <v>0.00136732676985258</v>
       </c>
       <c r="C36">
-        <v>6.258582426488509E-06</v>
+        <v>6.258582426488797E-06</v>
       </c>
       <c r="D36">
-        <v>0.4577239738503248</v>
+        <v>0.4577239738503454</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.001356763477407602</v>
+        <v>0.001356763477407603</v>
       </c>
       <c r="C37">
-        <v>6.066422000285779E-06</v>
+        <v>6.066422000286235E-06</v>
       </c>
       <c r="D37">
-        <v>0.4471245063197771</v>
+        <v>0.4471245063198103</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.001525839116196714</v>
+        <v>0.001525839116196716</v>
       </c>
       <c r="C38">
-        <v>6.179671625189902E-06</v>
+        <v>6.179671625190373E-06</v>
       </c>
       <c r="D38">
-        <v>0.4050015207758776</v>
+        <v>0.4050015207759078</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.001699788328446765</v>
+        <v>0.001699788328446767</v>
       </c>
       <c r="C39">
-        <v>6.291401458154108E-06</v>
+        <v>6.291401458153254E-06</v>
       </c>
       <c r="D39">
-        <v>0.3701285244088641</v>
+        <v>0.3701285244088135</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.001281930807638139</v>
+        <v>0.00128193080763814</v>
       </c>
       <c r="C40">
-        <v>4.600319532822764E-06</v>
+        <v>4.600319532823587E-06</v>
       </c>
       <c r="D40">
-        <v>0.3588586455222576</v>
+        <v>0.3588586455223215</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.001248592013351922</v>
+        <v>0.001248600001563902</v>
       </c>
       <c r="C41">
-        <v>3.924596956786117E-06</v>
+        <v>3.924450171714177E-06</v>
       </c>
       <c r="D41">
-        <v>0.3143218052669017</v>
+        <v>0.314308038346845</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.001444682443749558</v>
+        <v>0.001444689823923177</v>
       </c>
       <c r="C42">
-        <v>4.527565615768173E-06</v>
+        <v>4.527427012249825E-06</v>
       </c>
       <c r="D42">
-        <v>0.3133952125850743</v>
+        <v>0.3133840176125292</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.001635921780826934</v>
+        <v>0.001635929023540651</v>
       </c>
       <c r="C43">
-        <v>4.992338956549617E-06</v>
+        <v>4.992201636264636E-06</v>
       </c>
       <c r="D43">
-        <v>0.3051697834859844</v>
+        <v>0.3051600383896842</v>
       </c>
     </row>
   </sheetData>

--- a/results/Uncertainty_Analysis.xlsx
+++ b/results/Uncertainty_Analysis.xlsx
@@ -534,13 +534,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.00509669603973428</v>
+        <v>0.00509652652352102</v>
       </c>
       <c r="C2">
-        <v>9.53395112155996E-05</v>
+        <v>9.534266974834844E-05</v>
       </c>
       <c r="D2">
-        <v>1.87061403058618</v>
+        <v>1.870738223539733</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -548,13 +548,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.004937089394726806</v>
+        <v>0.004936975695214143</v>
       </c>
       <c r="C3">
-        <v>8.980230244877243E-05</v>
+        <v>8.980447916251645E-05</v>
       </c>
       <c r="D3">
-        <v>1.818932072501831</v>
+        <v>1.819018052885536</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -562,13 +562,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.004270530399434359</v>
+        <v>0.004270416550282342</v>
       </c>
       <c r="C4">
-        <v>7.733868988167248E-05</v>
+        <v>7.734084601477638E-05</v>
       </c>
       <c r="D4">
-        <v>1.810985583709138</v>
+        <v>1.811084354514852</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -576,13 +576,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.005312738099834054</v>
+        <v>0.005312616401726873</v>
       </c>
       <c r="C5">
-        <v>8.335773471664571E-05</v>
+        <v>8.336004097382315E-05</v>
       </c>
       <c r="D5">
-        <v>1.569016449714497</v>
+        <v>1.569095802714588</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -590,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.005603133097304736</v>
+        <v>0.005603024929890136</v>
       </c>
       <c r="C6">
-        <v>8.584765819385823E-05</v>
+        <v>8.584972966014032E-05</v>
       </c>
       <c r="D6">
-        <v>1.532136693935637</v>
+        <v>1.532203242612088</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.004197725370574036</v>
+        <v>0.004197613893729362</v>
       </c>
       <c r="C7">
-        <v>6.399191421044411E-05</v>
+        <v>6.399399532739897E-05</v>
       </c>
       <c r="D7">
-        <v>1.524442610253306</v>
+        <v>1.524532673741072</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -702,13 +702,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.001035806323174519</v>
+        <v>0.001035792639066948</v>
       </c>
       <c r="C14">
-        <v>1.019110736105506E-05</v>
+        <v>1.019136828711696E-05</v>
       </c>
       <c r="D14">
-        <v>0.9838815551754451</v>
+        <v>0.9839197444285215</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -744,13 +744,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.0007947066046487192</v>
+        <v>0.0007946913096355011</v>
       </c>
       <c r="C17">
-        <v>7.548443559008804E-06</v>
+        <v>7.548724749554863E-06</v>
       </c>
       <c r="D17">
-        <v>0.9498402951294723</v>
+        <v>0.9498939598341922</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -772,13 +772,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.0008693023020880187</v>
+        <v>0.0008692897494029976</v>
       </c>
       <c r="C19">
-        <v>7.938044756662621E-06</v>
+        <v>7.938281114732049E-06</v>
       </c>
       <c r="D19">
-        <v>0.9131512406668948</v>
+        <v>0.9131916165103551</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -870,13 +870,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.0006334972902030186</v>
+        <v>0.0006334882725942972</v>
       </c>
       <c r="C26">
-        <v>4.261334588899794E-06</v>
+        <v>4.261499562245865E-06</v>
       </c>
       <c r="D26">
-        <v>0.6726681636687274</v>
+        <v>0.6727037810493207</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -884,13 +884,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.0007973820174093737</v>
+        <v>0.00079737429354084</v>
       </c>
       <c r="C27">
-        <v>5.327353123996109E-06</v>
+        <v>5.327499574243538E-06</v>
       </c>
       <c r="D27">
-        <v>0.6681055012131107</v>
+        <v>0.6681303394653108</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -898,13 +898,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.0007002304911611825</v>
+        <v>0.0007002228628661865</v>
       </c>
       <c r="C28">
-        <v>4.49034286037553E-06</v>
+        <v>4.490485599639851E-06</v>
       </c>
       <c r="D28">
-        <v>0.6412663997149363</v>
+        <v>0.6412937705660131</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -954,13 +954,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.001885159213570773</v>
+        <v>0.001885146205082944</v>
       </c>
       <c r="C32">
-        <v>1.006791303242924E-05</v>
+        <v>1.006816173497865E-05</v>
       </c>
       <c r="D32">
-        <v>0.5340616834882135</v>
+        <v>0.5340785615371232</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -982,13 +982,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.001626156958286955</v>
+        <v>0.001626144348706935</v>
       </c>
       <c r="C34">
-        <v>8.219521404823164E-06</v>
+        <v>8.219759429621018E-06</v>
       </c>
       <c r="D34">
-        <v>0.5054568295474913</v>
+        <v>0.5054753863737338</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -996,13 +996,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.00136590531855862</v>
+        <v>0.001365893343099653</v>
       </c>
       <c r="C35">
-        <v>6.306487475723467E-06</v>
+        <v>6.30670916266048E-06</v>
       </c>
       <c r="D35">
-        <v>0.461707512961325</v>
+        <v>0.4617277911574356</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.001248600001563902</v>
+        <v>0.001248592013351923</v>
       </c>
       <c r="C41">
-        <v>3.924450171714177E-06</v>
+        <v>3.924596956786313E-06</v>
       </c>
       <c r="D41">
-        <v>0.314308038346845</v>
+        <v>0.3143218052669171</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.001444689823923177</v>
+        <v>0.001444682443749558</v>
       </c>
       <c r="C42">
-        <v>4.527427012249825E-06</v>
+        <v>4.527565615767652E-06</v>
       </c>
       <c r="D42">
-        <v>0.3133840176125292</v>
+        <v>0.3133952125850382</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.001635929023540651</v>
+        <v>0.001635921780826936</v>
       </c>
       <c r="C43">
-        <v>4.992201636264636E-06</v>
+        <v>4.992338956550079E-06</v>
       </c>
       <c r="D43">
-        <v>0.3051600383896842</v>
+        <v>0.3051697834860125</v>
       </c>
     </row>
   </sheetData>
